--- a/Shiny-GAC/config.xlsx
+++ b/Shiny-GAC/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JBurkhar\OneDrive - Environmental Protection Agency (EPA)\Profile\Desktop\Git\PSDM\PSDM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/colantonio_david_epa_gov/Documents/Profile/Documents/GitHub/Water_Treatment_Models/Shiny-GAC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="183" documentId="8_{FC6C552E-3166-4C64-8BC2-E954C229B3E9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{41008640-FEA6-4E03-9782-ECE2DD9879EE}"/>
+  <xr:revisionPtr revIDLastSave="186" documentId="8_{FC6C552E-3166-4C64-8BC2-E954C229B3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4588DD72-7409-4ADA-A23B-F6F6E6ADD0A9}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{317BF3F6-A68C-4964-9BC3-AEDC7E3058F4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="7" xr2:uid="{317BF3F6-A68C-4964-9BC3-AEDC7E3058F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Properties" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="data_variable" sheetId="7" r:id="rId5"/>
     <sheet name="Notes" sheetId="6" r:id="rId6"/>
     <sheet name="data_optimize" sheetId="8" r:id="rId7"/>
+    <sheet name="name" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="51">
   <si>
     <t>MW</t>
   </si>
@@ -187,6 +188,9 @@
   </si>
   <si>
     <t>Python also pays attention to extra spaces, or characters. If data is accidently stored in columns outside the format in this file, then full row/column deletes must be used to remove those possible hidden characters. Also, blank spaces at the end of text will be read explicitly, and may cause errors in reading in parameters/values.</t>
+  </si>
+  <si>
+    <t>No File Uploaded</t>
   </si>
 </sst>
 </file>
@@ -315,6 +319,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -620,18 +628,18 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -639,7 +647,7 @@
         <v>131.38999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -647,7 +655,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -655,7 +663,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -663,7 +671,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -671,7 +679,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -692,14 +700,14 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -707,7 +715,7 @@
         <v>5026.04</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -715,7 +723,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -723,7 +731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -731,7 +739,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -752,12 +760,12 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
@@ -768,7 +776,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -776,7 +784,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
@@ -787,7 +795,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
@@ -795,7 +803,7 @@
         <v>0.64100000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -803,7 +811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
@@ -814,7 +822,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>34</v>
       </c>
@@ -825,7 +833,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>23</v>
       </c>
@@ -836,7 +844,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
@@ -847,7 +855,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
@@ -858,7 +866,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>28</v>
       </c>
@@ -869,7 +877,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
@@ -877,7 +885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>30</v>
       </c>
@@ -885,7 +893,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -893,7 +901,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
@@ -901,7 +909,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>36</v>
       </c>
@@ -922,15 +930,15 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -944,7 +952,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -958,7 +966,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -972,7 +980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -986,7 +994,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -1013,15 +1021,15 @@
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1035,7 +1043,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -1049,7 +1057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -1063,7 +1071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1077,7 +1085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1091,7 +1099,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -1105,7 +1113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1132,18 +1140,18 @@
       <selection activeCell="A3" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="31.5" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="31" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="8"/>
+    <col min="1" max="1" width="9.1796875" style="8"/>
     <col min="2" max="2" width="148" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="63" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.7">
       <c r="B1" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="63" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" ht="62" x14ac:dyDescent="0.7">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1151,7 +1159,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="63" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" ht="62" x14ac:dyDescent="0.7">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1159,7 +1167,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="157.5" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" ht="155" x14ac:dyDescent="0.7">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1167,7 +1175,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="94.5" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" ht="62" x14ac:dyDescent="0.7">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -1175,7 +1183,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="63" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" ht="62" x14ac:dyDescent="0.7">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -1183,7 +1191,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="63" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" ht="62" x14ac:dyDescent="0.7">
       <c r="A9" s="8">
         <v>6</v>
       </c>
@@ -1200,19 +1208,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0262868-F1D2-4471-83DF-330B743CAC3B}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1226,7 +1234,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -1240,7 +1248,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -1254,7 +1262,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1268,7 +1276,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1282,7 +1290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1296,7 +1304,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1310,7 +1318,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1324,7 +1332,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1338,7 +1346,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1352,7 +1360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -1366,7 +1374,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1380,7 +1388,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1394,7 +1402,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1408,7 +1416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1422,7 +1430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -1436,7 +1444,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1450,7 +1458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -1464,7 +1472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -1478,7 +1486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -1492,7 +1500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -1506,7 +1514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1520,7 +1528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1534,7 +1542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -1548,7 +1556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -1562,7 +1570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1576,7 +1584,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1590,7 +1598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1602,6 +1610,31 @@
       </c>
       <c r="D28" t="s">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C024A4-1F50-44C3-AF99-7D9007347445}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2067,20 +2100,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
@@ -2121,6 +2140,20 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D265CA-67CD-4AD3-99A3-30810910E78A}">
   <ds:schemaRefs>
@@ -2145,22 +2178,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BB79E98-5AD2-42D4-8617-624CBCC2A96C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E301F64B-2E68-42FE-B72F-07064BA5C6EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5D2AB43-1478-4761-B6C2-35F0AE76DC6E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -2179,4 +2196,20 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E301F64B-2E68-42FE-B72F-07064BA5C6EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BB79E98-5AD2-42D4-8617-624CBCC2A96C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Shiny-GAC/config.xlsx
+++ b/Shiny-GAC/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/colantonio_david_epa_gov/Documents/Profile/Documents/GitHub/Water_Treatment_Models/Shiny-GAC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="186" documentId="8_{FC6C552E-3166-4C64-8BC2-E954C229B3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4588DD72-7409-4ADA-A23B-F6F6E6ADD0A9}"/>
+  <xr:revisionPtr revIDLastSave="194" documentId="8_{FC6C552E-3166-4C64-8BC2-E954C229B3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D43240B5-6C05-4830-ABE1-7A5272DE0226}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="7" xr2:uid="{317BF3F6-A68C-4964-9BC3-AEDC7E3058F4}"/>
+    <workbookView xWindow="-19320" yWindow="600" windowWidth="19440" windowHeight="14880" firstSheet="2" activeTab="8" xr2:uid="{317BF3F6-A68C-4964-9BC3-AEDC7E3058F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Properties" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Notes" sheetId="6" r:id="rId6"/>
     <sheet name="data_optimize" sheetId="8" r:id="rId7"/>
     <sheet name="name" sheetId="9" r:id="rId8"/>
+    <sheet name="output" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="52">
   <si>
     <t>MW</t>
   </si>
@@ -191,6 +192,9 @@
   </si>
   <si>
     <t>No File Uploaded</t>
+  </si>
+  <si>
+    <t>Chemicals</t>
   </si>
 </sst>
 </file>
@@ -1621,7 +1625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C024A4-1F50-44C3-AF99-7D9007347445}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -1642,7 +1646,101 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4347888-7429-45E5-A764-B2770BB8B5BB}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D11:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
+    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j747ac98061d40f0aa7bd47e1db5675d>
+    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Records_x0020_Date xmlns="ca243fbf-11ff-4731-ae3b-9fc118f3bbf4" xsi:nil="true"/>
+    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
+    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <Records_x0020_Status xmlns="ca243fbf-11ff-4731-ae3b-9fc118f3bbf4">Pending</Records_x0020_Status>
+    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-06-12T12:44:56+00:00</Document_x0020_Creation_x0020_Date>
+    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
+    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Creator>
+    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </EPA_x0020_Contributor>
+    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AA3E377063FFE5489A04E78E6AF321F7" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d56b0910c09b2f28088e837fc8a4b1f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns4="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns5="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns6="ca243fbf-11ff-4731-ae3b-9fc118f3bbf4" xmlns:ns7="d75150bc-12f9-4c92-a7eb-e71bcd8ee9be" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c38d2d5698dbedce593845e142ad0a0f" ns1:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="" ns7:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2099,62 +2197,44 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
-    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j747ac98061d40f0aa7bd47e1db5675d>
-    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <Records_x0020_Date xmlns="ca243fbf-11ff-4731-ae3b-9fc118f3bbf4" xsi:nil="true"/>
-    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
-    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <Records_x0020_Status xmlns="ca243fbf-11ff-4731-ae3b-9fc118f3bbf4">Pending</Records_x0020_Status>
-    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-06-12T12:44:56+00:00</Document_x0020_Creation_x0020_Date>
-    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
-    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Creator>
-    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </EPA_x0020_Contributor>
-    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5D2AB43-1478-4761-B6C2-35F0AE76DC6E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="d75150bc-12f9-4c92-a7eb-e71bcd8ee9be"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="ca243fbf-11ff-4731-ae3b-9fc118f3bbf4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E301F64B-2E68-42FE-B72F-07064BA5C6EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BB79E98-5AD2-42D4-8617-624CBCC2A96C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D265CA-67CD-4AD3-99A3-30810910E78A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2175,41 +2255,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5D2AB43-1478-4761-B6C2-35F0AE76DC6E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="d75150bc-12f9-4c92-a7eb-e71bcd8ee9be"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="ca243fbf-11ff-4731-ae3b-9fc118f3bbf4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E301F64B-2E68-42FE-B72F-07064BA5C6EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BB79E98-5AD2-42D4-8617-624CBCC2A96C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Shiny-GAC/config.xlsx
+++ b/Shiny-GAC/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/colantonio_david_epa_gov/Documents/Profile/Documents/GitHub/Water_Treatment_Models/Shiny-GAC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="194" documentId="8_{FC6C552E-3166-4C64-8BC2-E954C229B3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D43240B5-6C05-4830-ABE1-7A5272DE0226}"/>
+  <xr:revisionPtr revIDLastSave="195" documentId="8_{FC6C552E-3166-4C64-8BC2-E954C229B3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A87A5872-C296-4B94-BBA8-0CC8B564D099}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="600" windowWidth="19440" windowHeight="14880" firstSheet="2" activeTab="8" xr2:uid="{317BF3F6-A68C-4964-9BC3-AEDC7E3058F4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="7" xr2:uid="{317BF3F6-A68C-4964-9BC3-AEDC7E3058F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Properties" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <sheet name="Notes" sheetId="6" r:id="rId6"/>
     <sheet name="data_optimize" sheetId="8" r:id="rId7"/>
     <sheet name="name" sheetId="9" r:id="rId8"/>
-    <sheet name="output" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="51">
   <si>
     <t>MW</t>
   </si>
@@ -192,9 +191,6 @@
   </si>
   <si>
     <t>No File Uploaded</t>
-  </si>
-  <si>
-    <t>Chemicals</t>
   </si>
 </sst>
 </file>
@@ -1625,7 +1621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C024A4-1F50-44C3-AF99-7D9007347445}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -1646,46 +1642,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4347888-7429-45E5-A764-B2770BB8B5BB}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D11:D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
@@ -1724,20 +1695,6 @@
     <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2198,6 +2155,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BB79E98-5AD2-42D4-8617-624CBCC2A96C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E301F64B-2E68-42FE-B72F-07064BA5C6EE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5D2AB43-1478-4761-B6C2-35F0AE76DC6E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -2214,22 +2187,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E301F64B-2E68-42FE-B72F-07064BA5C6EE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BB79E98-5AD2-42D4-8617-624CBCC2A96C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
